--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.069328666666665</v>
+        <v>10.13084733333333</v>
       </c>
       <c r="H2">
-        <v>27.207986</v>
+        <v>30.392542</v>
       </c>
       <c r="I2">
-        <v>0.05418223520138252</v>
+        <v>0.06120524725024945</v>
       </c>
       <c r="J2">
-        <v>0.05546404997331413</v>
+        <v>0.0617054391363504</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="N2">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="O2">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="P2">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="Q2">
-        <v>27.77544482534466</v>
+        <v>18.48348106543244</v>
       </c>
       <c r="R2">
-        <v>249.979003428102</v>
+        <v>166.351329588892</v>
       </c>
       <c r="S2">
-        <v>0.01332924918283127</v>
+        <v>0.0116694326787639</v>
       </c>
       <c r="T2">
-        <v>0.01492312192342253</v>
+        <v>0.01243643488994356</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.069328666666665</v>
+        <v>10.13084733333333</v>
       </c>
       <c r="H3">
-        <v>27.207986</v>
+        <v>30.392542</v>
       </c>
       <c r="I3">
-        <v>0.05418223520138252</v>
+        <v>0.06120524725024945</v>
       </c>
       <c r="J3">
-        <v>0.05546404997331413</v>
+        <v>0.0617054391363504</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>18.441306</v>
       </c>
       <c r="O3">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="P3">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="Q3">
-        <v>55.75008838552399</v>
+        <v>62.27535190442801</v>
       </c>
       <c r="R3">
-        <v>501.750795469716</v>
+        <v>560.478167139852</v>
       </c>
       <c r="S3">
-        <v>0.02675409249890549</v>
+        <v>0.03931716239070095</v>
       </c>
       <c r="T3">
-        <v>0.02995326884772702</v>
+        <v>0.04190137974908686</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.069328666666665</v>
+        <v>10.13084733333333</v>
       </c>
       <c r="H4">
-        <v>27.207986</v>
+        <v>30.392542</v>
       </c>
       <c r="I4">
-        <v>0.05418223520138252</v>
+        <v>0.06120524725024945</v>
       </c>
       <c r="J4">
-        <v>0.05546404997331413</v>
+        <v>0.0617054391363504</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="N4">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="O4">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="P4">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="Q4">
-        <v>0.1596050689855555</v>
+        <v>0.09512527951088888</v>
       </c>
       <c r="R4">
-        <v>1.43644562087</v>
+        <v>0.8561275155979999</v>
       </c>
       <c r="S4">
-        <v>7.659339926791057E-05</v>
+        <v>6.005676319148193E-05</v>
       </c>
       <c r="T4">
-        <v>8.575221455659092E-05</v>
+        <v>6.400414190578628E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.069328666666665</v>
+        <v>10.13084733333333</v>
       </c>
       <c r="H5">
-        <v>27.207986</v>
+        <v>30.392542</v>
       </c>
       <c r="I5">
-        <v>0.05418223520138252</v>
+        <v>0.06120524725024945</v>
       </c>
       <c r="J5">
-        <v>0.05546404997331413</v>
+        <v>0.0617054391363504</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="N5">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="O5">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="P5">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="Q5">
-        <v>29.01929871731366</v>
+        <v>15.706576976451</v>
       </c>
       <c r="R5">
-        <v>174.115792303882</v>
+        <v>94.23946185870599</v>
       </c>
       <c r="S5">
-        <v>0.01392616630071521</v>
+        <v>0.009916251272780998</v>
       </c>
       <c r="T5">
-        <v>0.01039427776617836</v>
+        <v>0.00704534754465453</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.069328666666665</v>
+        <v>10.13084733333333</v>
       </c>
       <c r="H6">
-        <v>27.207986</v>
+        <v>30.392542</v>
       </c>
       <c r="I6">
-        <v>0.05418223520138252</v>
+        <v>0.06120524725024945</v>
       </c>
       <c r="J6">
-        <v>0.05546404997331413</v>
+        <v>0.0617054391363504</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="N6">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="O6">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="P6">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="Q6">
-        <v>0.2003233315893333</v>
+        <v>0.3838544285108889</v>
       </c>
       <c r="R6">
-        <v>1.802909984304</v>
+        <v>3.454689856598</v>
       </c>
       <c r="S6">
-        <v>9.613381966263522E-05</v>
+        <v>0.0002423441448121183</v>
       </c>
       <c r="T6">
-        <v>0.0001076292214296419</v>
+        <v>0.0002582728107596585</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>404.979507</v>
       </c>
       <c r="I7">
-        <v>0.8064799393830157</v>
+        <v>0.8155576738931257</v>
       </c>
       <c r="J7">
-        <v>0.8255592168569963</v>
+        <v>0.8222227124225968</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="N7">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="O7">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="P7">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="Q7">
-        <v>413.425894591161</v>
+        <v>246.291707008998</v>
       </c>
       <c r="R7">
-        <v>3720.833051320449</v>
+        <v>2216.625363080982</v>
       </c>
       <c r="S7">
-        <v>0.1984003065402621</v>
+        <v>0.1554947622747545</v>
       </c>
       <c r="T7">
-        <v>0.2221244365330292</v>
+        <v>0.1657150385962103</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>404.979507</v>
       </c>
       <c r="I8">
-        <v>0.8064799393830157</v>
+        <v>0.8155576738931257</v>
       </c>
       <c r="J8">
-        <v>0.8255592168569963</v>
+        <v>0.8222227124225968</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>18.441306</v>
       </c>
       <c r="O8">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="P8">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="Q8">
         <v>829.816779146238</v>
@@ -948,10 +948,10 @@
         <v>7468.351012316142</v>
       </c>
       <c r="S8">
-        <v>0.3982234918247584</v>
+        <v>0.5238997462477806</v>
       </c>
       <c r="T8">
-        <v>0.4458418955004955</v>
+        <v>0.5583343477292878</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>404.979507</v>
       </c>
       <c r="I9">
-        <v>0.8064799393830157</v>
+        <v>0.8155576738931257</v>
       </c>
       <c r="J9">
-        <v>0.8255592168569963</v>
+        <v>0.8222227124225968</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="N9">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="O9">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="P9">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="Q9">
-        <v>2.375654785785</v>
+        <v>1.267540859187</v>
       </c>
       <c r="R9">
-        <v>21.380893072065</v>
+        <v>11.407867732683</v>
       </c>
       <c r="S9">
-        <v>0.001140060755506585</v>
+        <v>0.0008002541659497287</v>
       </c>
       <c r="T9">
-        <v>0.001276385895497242</v>
+        <v>0.0008528528424823225</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>404.979507</v>
       </c>
       <c r="I10">
-        <v>0.8064799393830157</v>
+        <v>0.8155576738931257</v>
       </c>
       <c r="J10">
-        <v>0.8255592168569963</v>
+        <v>0.8222227124225968</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="N10">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="O10">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="P10">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="Q10">
-        <v>431.9401402229264</v>
+        <v>209.2895619122835</v>
       </c>
       <c r="R10">
-        <v>2591.640841337559</v>
+        <v>1255.737371473701</v>
       </c>
       <c r="S10">
-        <v>0.2072851685113209</v>
+        <v>0.1321336843670059</v>
       </c>
       <c r="T10">
-        <v>0.1547144829230643</v>
+        <v>0.09387899752767809</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>404.979507</v>
       </c>
       <c r="I11">
-        <v>0.8064799393830157</v>
+        <v>0.8155576738931257</v>
       </c>
       <c r="J11">
-        <v>0.8255592168569963</v>
+        <v>0.8222227124225968</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="N11">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="O11">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="P11">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="Q11">
-        <v>2.981729116872</v>
+        <v>5.114846175687</v>
       </c>
       <c r="R11">
-        <v>26.835562051848</v>
+        <v>46.03361558118301</v>
       </c>
       <c r="S11">
-        <v>0.001430911751167504</v>
+        <v>0.003229226837634979</v>
       </c>
       <c r="T11">
-        <v>0.00160201600491011</v>
+        <v>0.003441475726938234</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.313620333333334</v>
+        <v>4.746473666666666</v>
       </c>
       <c r="H12">
-        <v>12.940861</v>
+        <v>14.239421</v>
       </c>
       <c r="I12">
-        <v>0.02577055039687239</v>
+        <v>0.02867569560339488</v>
       </c>
       <c r="J12">
-        <v>0.02638021649973327</v>
+        <v>0.02891004397895937</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="N12">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="O12">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="P12">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="Q12">
-        <v>13.21075991063633</v>
+        <v>8.659824125149553</v>
       </c>
       <c r="R12">
-        <v>118.896839195727</v>
+        <v>77.938417126346</v>
       </c>
       <c r="S12">
-        <v>0.006339754839236652</v>
+        <v>0.005467326975942877</v>
       </c>
       <c r="T12">
-        <v>0.007097844232096546</v>
+        <v>0.005826680510534295</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.313620333333334</v>
+        <v>4.746473666666666</v>
       </c>
       <c r="H13">
-        <v>12.940861</v>
+        <v>14.239421</v>
       </c>
       <c r="I13">
-        <v>0.02577055039687239</v>
+        <v>0.02867569560339488</v>
       </c>
       <c r="J13">
-        <v>0.02638021649973327</v>
+        <v>0.02891004397895937</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>18.441306</v>
       </c>
       <c r="O13">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="P13">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="Q13">
-        <v>26.516264178274</v>
+        <v>29.177057769314</v>
       </c>
       <c r="R13">
-        <v>238.646377604466</v>
+        <v>262.593519923826</v>
       </c>
       <c r="S13">
-        <v>0.01272497685824591</v>
+        <v>0.01842075690169507</v>
       </c>
       <c r="T13">
-        <v>0.01424659247671127</v>
+        <v>0.01963150652973095</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.313620333333334</v>
+        <v>4.746473666666666</v>
       </c>
       <c r="H14">
-        <v>12.940861</v>
+        <v>14.239421</v>
       </c>
       <c r="I14">
-        <v>0.02577055039687239</v>
+        <v>0.02867569560339488</v>
       </c>
       <c r="J14">
-        <v>0.02638021649973327</v>
+        <v>0.02891004397895937</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="N14">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="O14">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="P14">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="Q14">
-        <v>0.07591252849944444</v>
+        <v>0.0445678055721111</v>
       </c>
       <c r="R14">
-        <v>0.6832127564949999</v>
+        <v>0.4011102501489999</v>
       </c>
       <c r="S14">
-        <v>3.64299119179028E-05</v>
+        <v>2.813761135810274E-05</v>
       </c>
       <c r="T14">
-        <v>4.0786094531915E-05</v>
+        <v>2.998702518335693E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.313620333333334</v>
+        <v>4.746473666666666</v>
       </c>
       <c r="H15">
-        <v>12.940861</v>
+        <v>14.239421</v>
       </c>
       <c r="I15">
-        <v>0.02577055039687239</v>
+        <v>0.02867569560339488</v>
       </c>
       <c r="J15">
-        <v>0.02638021649973327</v>
+        <v>0.02891004397895937</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="N15">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="O15">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="P15">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="Q15">
-        <v>13.80237078254283</v>
+        <v>7.358797498300499</v>
       </c>
       <c r="R15">
-        <v>82.81422469525698</v>
+        <v>44.152784989803</v>
       </c>
       <c r="S15">
-        <v>0.006623664918103083</v>
+        <v>0.004645931775463679</v>
       </c>
       <c r="T15">
-        <v>0.004943802300085889</v>
+        <v>0.003300864724630541</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.313620333333334</v>
+        <v>4.746473666666666</v>
       </c>
       <c r="H16">
-        <v>12.940861</v>
+        <v>14.239421</v>
       </c>
       <c r="I16">
-        <v>0.02577055039687239</v>
+        <v>0.02867569560339488</v>
       </c>
       <c r="J16">
-        <v>0.02638021649973327</v>
+        <v>0.02891004397895937</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="N16">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="O16">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="P16">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="Q16">
-        <v>0.09527924592266668</v>
+        <v>0.1798423050721111</v>
       </c>
       <c r="R16">
-        <v>0.857513213304</v>
+        <v>1.618580745649</v>
       </c>
       <c r="S16">
-        <v>4.572386936884008E-05</v>
+        <v>0.0001135423389351479</v>
       </c>
       <c r="T16">
-        <v>5.119139630765822E-05</v>
+        <v>0.0001210051888802229</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.6052145</v>
+        <v>4.025238</v>
       </c>
       <c r="H17">
-        <v>23.210429</v>
+        <v>8.050476</v>
       </c>
       <c r="I17">
-        <v>0.06933219477562524</v>
+        <v>0.02431836932538577</v>
       </c>
       <c r="J17">
-        <v>0.04731494620579633</v>
+        <v>0.01634473868084643</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="N17">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="O17">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="P17">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="Q17">
-        <v>35.5417701660505</v>
+        <v>7.343947441795999</v>
       </c>
       <c r="R17">
-        <v>213.250620996303</v>
+        <v>44.063684650776</v>
       </c>
       <c r="S17">
-        <v>0.01705625648558184</v>
+        <v>0.004636556283150212</v>
       </c>
       <c r="T17">
-        <v>0.01273052925938517</v>
+        <v>0.003294203578201958</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.6052145</v>
+        <v>4.025238</v>
       </c>
       <c r="H18">
-        <v>23.210429</v>
+        <v>8.050476</v>
       </c>
       <c r="I18">
-        <v>0.06933219477562524</v>
+        <v>0.02431836932538577</v>
       </c>
       <c r="J18">
-        <v>0.04731494620579633</v>
+        <v>0.01634473868084643</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>18.441306</v>
       </c>
       <c r="O18">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="P18">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="Q18">
-        <v>71.33843726337901</v>
+        <v>24.743548560276</v>
       </c>
       <c r="R18">
-        <v>428.030623580274</v>
+        <v>148.461291361656</v>
       </c>
       <c r="S18">
-        <v>0.03423483629431145</v>
+        <v>0.01562168798916724</v>
       </c>
       <c r="T18">
-        <v>0.02555235877834103</v>
+        <v>0.01109897461149876</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.6052145</v>
+        <v>4.025238</v>
       </c>
       <c r="H19">
-        <v>23.210429</v>
+        <v>8.050476</v>
       </c>
       <c r="I19">
-        <v>0.06933219477562524</v>
+        <v>0.02431836932538577</v>
       </c>
       <c r="J19">
-        <v>0.04731494620579633</v>
+        <v>0.01634473868084643</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="N19">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="O19">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="P19">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="Q19">
-        <v>0.2042324331758333</v>
+        <v>0.037795643074</v>
       </c>
       <c r="R19">
-        <v>1.225394599055</v>
+        <v>0.226773858444</v>
       </c>
       <c r="S19">
-        <v>9.800977122543123E-05</v>
+        <v>2.386204800065961E-05</v>
       </c>
       <c r="T19">
-        <v>7.315299587255449E-05</v>
+        <v>1.695362659408768E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.6052145</v>
+        <v>4.025238</v>
       </c>
       <c r="H20">
-        <v>23.210429</v>
+        <v>8.050476</v>
       </c>
       <c r="I20">
-        <v>0.06933219477562524</v>
+        <v>0.02431836932538577</v>
       </c>
       <c r="J20">
-        <v>0.04731494620579633</v>
+        <v>0.01634473868084643</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="N20">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="O20">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="P20">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="Q20">
-        <v>37.13341953211825</v>
+        <v>6.240614275917</v>
       </c>
       <c r="R20">
-        <v>148.533678128473</v>
+        <v>24.962457103668</v>
       </c>
       <c r="S20">
-        <v>0.01782007831257392</v>
+        <v>0.003939973639659339</v>
       </c>
       <c r="T20">
-        <v>0.008867089467708542</v>
+        <v>0.001866194717108567</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.6052145</v>
+        <v>4.025238</v>
       </c>
       <c r="H21">
-        <v>23.210429</v>
+        <v>8.050476</v>
       </c>
       <c r="I21">
-        <v>0.06933219477562524</v>
+        <v>0.02431836932538577</v>
       </c>
       <c r="J21">
-        <v>0.04731494620579633</v>
+        <v>0.01634473868084643</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="N21">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="O21">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="P21">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="Q21">
-        <v>0.256335977876</v>
+        <v>0.152514926074</v>
       </c>
       <c r="R21">
-        <v>1.538015867256</v>
+        <v>0.915089556444</v>
       </c>
       <c r="S21">
-        <v>0.0001230139119326068</v>
+        <v>9.628936540832038E-05</v>
       </c>
       <c r="T21">
-        <v>9.181570448904161E-05</v>
+        <v>6.841214744305273E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.404317666666667</v>
+        <v>11.62680133333333</v>
       </c>
       <c r="H22">
-        <v>22.212953</v>
+        <v>34.880404</v>
       </c>
       <c r="I22">
-        <v>0.04423508024310419</v>
+        <v>0.0702430139278442</v>
       </c>
       <c r="J22">
-        <v>0.04528157046415997</v>
+        <v>0.07081706578124704</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="N22">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="O22">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="P22">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="Q22">
-        <v>22.67623375208566</v>
+        <v>21.21281223823378</v>
       </c>
       <c r="R22">
-        <v>204.086103768771</v>
+        <v>190.915310144104</v>
       </c>
       <c r="S22">
-        <v>0.01088217208078244</v>
+        <v>0.01339257921519322</v>
       </c>
       <c r="T22">
-        <v>0.01218343047876657</v>
+        <v>0.01427283947755758</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.404317666666667</v>
+        <v>11.62680133333333</v>
       </c>
       <c r="H23">
-        <v>22.212953</v>
+        <v>34.880404</v>
       </c>
       <c r="I23">
-        <v>0.04423508024310419</v>
+        <v>0.0702430139278442</v>
       </c>
       <c r="J23">
-        <v>0.04528157046415997</v>
+        <v>0.07081706578124704</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>18.441306</v>
       </c>
       <c r="O23">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="P23">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="Q23">
-        <v>45.515095937402</v>
+        <v>71.471133729736</v>
       </c>
       <c r="R23">
-        <v>409.635863436618</v>
+        <v>643.240203567624</v>
       </c>
       <c r="S23">
-        <v>0.021842388453002</v>
+        <v>0.04512286298136086</v>
       </c>
       <c r="T23">
-        <v>0.02445423755771281</v>
+        <v>0.04808867431376977</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.404317666666667</v>
+        <v>11.62680133333333</v>
       </c>
       <c r="H24">
-        <v>22.212953</v>
+        <v>34.880404</v>
       </c>
       <c r="I24">
-        <v>0.04423508024310419</v>
+        <v>0.0702430139278442</v>
       </c>
       <c r="J24">
-        <v>0.04528157046415997</v>
+        <v>0.07081706578124704</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="N24">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="O24">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="P24">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="Q24">
-        <v>0.1303036504038889</v>
+        <v>0.1091717889195555</v>
       </c>
       <c r="R24">
-        <v>1.172732853635</v>
+        <v>0.982546100276</v>
       </c>
       <c r="S24">
-        <v>6.253184554153813E-05</v>
+        <v>6.892494096253019E-05</v>
       </c>
       <c r="T24">
-        <v>7.000922124818316E-05</v>
+        <v>7.345520250814017E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.404317666666667</v>
+        <v>11.62680133333333</v>
       </c>
       <c r="H25">
-        <v>22.212953</v>
+        <v>34.880404</v>
       </c>
       <c r="I25">
-        <v>0.04423508024310419</v>
+        <v>0.0702430139278442</v>
       </c>
       <c r="J25">
-        <v>0.04528157046415997</v>
+        <v>0.07081706578124704</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="N25">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="O25">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="P25">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="Q25">
-        <v>23.69173221791016</v>
+        <v>18.025861423362</v>
       </c>
       <c r="R25">
-        <v>142.150393307461</v>
+        <v>108.155168540172</v>
       </c>
       <c r="S25">
-        <v>0.01136950296534153</v>
+        <v>0.01138051731770628</v>
       </c>
       <c r="T25">
-        <v>0.00848602331275328</v>
+        <v>0.008085686570013068</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.404317666666667</v>
+        <v>11.62680133333333</v>
       </c>
       <c r="H26">
-        <v>22.212953</v>
+        <v>34.880404</v>
       </c>
       <c r="I26">
-        <v>0.04423508024310419</v>
+        <v>0.0702430139278442</v>
       </c>
       <c r="J26">
-        <v>0.04528157046415997</v>
+        <v>0.07081706578124704</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="N26">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="O26">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="P26">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="Q26">
-        <v>0.1635465686213333</v>
+        <v>0.4405356269195556</v>
       </c>
       <c r="R26">
-        <v>1.471919117592</v>
+        <v>3.964820642276</v>
       </c>
       <c r="S26">
-        <v>7.84848984366793E-05</v>
+        <v>0.0002781294726213158</v>
       </c>
       <c r="T26">
-        <v>8.786989367912889E-05</v>
+        <v>0.0002964102173984801</v>
       </c>
     </row>
   </sheetData>
